--- a/medicine/Mort/Cimetière_d'Hietaniemi/Cimetière_d'Hietaniemi.xlsx
+++ b/medicine/Mort/Cimetière_d'Hietaniemi/Cimetière_d'Hietaniemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Hietaniemi</t>
+          <t>Cimetière_d'Hietaniemi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Hietaniemi (en finnois : Hietaniemen hautausmaa, en suédois : Sandudds begravningsplats) est situé principalement dans la pésinsule d'Hietaniemi dans la section de Lapinlahti sauf sa partie septentrionale qui est située dans Etu-Töölö à Helsinki, la capitale de la Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Hietaniemi</t>
+          <t>Cimetière_d'Hietaniemi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,123 +525,487 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cimetière de Kamppi
-Dans les années 1640, la ville d’Helsinki est transférée de l’embouchure de la rivière Vantaanjoki à  Vironniemi.
+          <t>Le Cimetière de Kamppi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1640, la ville d’Helsinki est transférée de l’embouchure de la rivière Vantaanjoki à  Vironniemi.
 À cette époque les défunts sont enterrés dans un cimetière situé dans l’actuel quartier de Kamppi.
-Cimetière de la place du Sénat
-Au début des années 1720, on les enterre dans un cimetière créé autour de l’Église de Ulrika Eleonora et qui se situait dans le coin nord-ouest de la Place du Sénat. Quand on commence à construire l’église Saint Nicolas (appelée de nos jours Cathédrale luthérienne d'Helsinki) l’église Ulrika Eleonora est détruite et le cimetière est fermé en 1827.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cimetière de la place du Sénat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1720, on les enterre dans un cimetière créé autour de l’Église de Ulrika Eleonora et qui se situait dans le coin nord-ouest de la Place du Sénat. Quand on commence à construire l’église Saint Nicolas (appelée de nos jours Cathédrale luthérienne d'Helsinki) l’église Ulrika Eleonora est détruite et le cimetière est fermé en 1827.
 Un mémorial en pierre marque l’emplacement de cette ancienne église Ulrika Eleonora sur la Place du sénat .
 Des os des anciennes tombes sont apparus à chaque fois qu’il a été nécessaire de creuser sur la place du sénat.
-Cimetière de la Vieille église d'Helsinki
-Pour remplacer l’église détruite, Carl Ludvig Engel construit une église «temporaire en bois» (l’actuelle Vieille église d'Helsinki) qui est inaugurée en 1827 et dans laquelle on transfère tous les objets de culte utilisables comme la chaire, les bancs et l’orgue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cimetière de la Vieille église d'Helsinki</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour remplacer l’église détruite, Carl Ludvig Engel construit une église «temporaire en bois» (l’actuelle Vieille église d'Helsinki) qui est inaugurée en 1827 et dans laquelle on transfère tous les objets de culte utilisables comme la chaire, les bancs et l’orgue.
 Autour de la Vieille église d'Helsinki se trouvait le cimetière de Kamppi où l’on enterre les victimes de la grande famine de la fin du XVIIe siècle, puis les quelque 1 000 morts de l’épidémie de peste de l’année 1710.
 Une partie de cet endroit est de nos jours appelé ‘’Parc de la vieille église’’ ou ‘’Parc de la peste’’.
 À cette époque le parc est beaucoup plus grand et s’étend entre l’actuel Erottaja et les rues Annankatu et Fredrikinkatu.
 À cette époque Helsinki compte près de 10 000 habitants.
 Le Parc commence à être trop encombré et on ne peut l’étendre car on a prévu des constructions à ses alentours des deux côtés du Bulevardi.
-Le vieux cimetière
-On trouve à l’extérieur des zones d’habitations, à proximité du cimetière orthodoxe d’Helsinki, un meilleur emplacement qui est proche de la plage de Lapinlahti et on l’inaugure en 1829.
-Ce lieu est d’abord nommé  Cimetière de Lapinlahti, et de nos jours c’est la partie du cimetière de Hietaniemi que l’on appelle le Vieux cimetière ou la Vieille zone[1].
-Le nouveau cimetière
-En 1864 on agrandit la zone et on inaugure le « Nouveau Cimetière »[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le vieux cimetière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve à l’extérieur des zones d’habitations, à proximité du cimetière orthodoxe d’Helsinki, un meilleur emplacement qui est proche de la plage de Lapinlahti et on l’inaugure en 1829.
+Ce lieu est d’abord nommé  Cimetière de Lapinlahti, et de nos jours c’est la partie du cimetière de Hietaniemi que l’on appelle le Vieux cimetière ou la Vieille zone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le nouveau cimetière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1864 on agrandit la zone et on inaugure le « Nouveau Cimetière ».
 Son entrée est située dans la zone de Leppäsuo, le long de la rue Mechelininkatu.
-Les plus anciennes tombes du nouveau cimetière datent des années 1880[2].
-La zone d'Hietaniemi
-En 1929 on décide de créer la zone d'Hietaniemi d’environ 6 hectares entre le mur d’enceinte et la plage de Hietaniemi[3]
+Les plus anciennes tombes du nouveau cimetière datent des années 1880.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La zone d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1929 on décide de créer la zone d'Hietaniemi d’environ 6 hectares entre le mur d’enceinte et la plage de Hietaniemi
 Cette zone était prévue pour accueillir un Port pétrolier conçu par l’architecte  Albert Nyberg et l’architecte paysager Paul Olsson.
-À la suite du déclenchement de la guerre en 1939, une partie de cette zone sera réservée pour accueillir les tombes des héros qui fut par la suite aménagée différemment des projets de l’époque[1]
-L'hôpital de Maria
-La partie de la rue Mechelininkatu située entre la rue Hietaniemenkatu et la rue Itämerenkatu s’appelle Kirkkomaankatu entre 1909 et 1928.
+À la suite du déclenchement de la guerre en 1939, une partie de cette zone sera réservée pour accueillir les tombes des héros qui fut par la suite aménagée différemment des projets de l’époque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'hôpital de Maria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie de la rue Mechelininkatu située entre la rue Hietaniemenkatu et la rue Itämerenkatu s’appelle Kirkkomaankatu entre 1909 et 1928.
 En 1928 on confirme l’appellation de Kalmistokatu.
 L’entrée de l’hôpital de Maria est alors à l’adresse 16, rue Lapinlahdenkatu. La polyclinique de l’hôpital est terminée en 1954. Lors de sa conception on s’aperçoit que ‘’rue Kalmistokatu’’ (en français : Rue du cimetière) n’est pas un nom de rue adéquat pour accueillir un hôpital et en 1953 on la rebaptise ‘’rue Mechelininkatu’’. L’hôpital de Maria est alors à l’adresse 1, rue Mechelininkatu.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_d%27Hietaniemi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Structure du cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tombes des héros
-Dans cette partie du cimetière, 3164 héros d'Helsinki sont enterrés, dont 644 sont tombés pendant la guerre d'hiver, 2414 durant la guerre de continuation et 101 pendant la guerre de Laponie. Il y a aussi 121 allemands tués pendant la seconde guerre mondiale[4].
-En outre, il y a au total 279 héros à Helsinki, enterrés dans d'autres zones du cimetière[5].
-Le plus jeune héro inhumé dans cette zone est le jeune Lauri Martti Hämäläinen âgé de 13 ans quand il est tombé à Salla le 15 juin 1943[6].
-Carré des urnes funéraires
-En 1926, une fondation crée un crématorium à côté du cimetière d'Hietaniemi.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tombes des héros</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette partie du cimetière, 3164 héros d'Helsinki sont enterrés, dont 644 sont tombés pendant la guerre d'hiver, 2414 durant la guerre de continuation et 101 pendant la guerre de Laponie. Il y a aussi 121 allemands tués pendant la seconde guerre mondiale.
+En outre, il y a au total 279 héros à Helsinki, enterrés dans d'autres zones du cimetière.
+Le plus jeune héro inhumé dans cette zone est le jeune Lauri Martti Hämäläinen âgé de 13 ans quand il est tombé à Salla le 15 juin 1943.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure du cimetière</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Carré des urnes funéraires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1926, une fondation crée un crématorium à côté du cimetière d'Hietaniemi.
 Les cendres sont alors placées dans le colombarium du crématorium.
 Dès 1928, la ville d'Helsinki commence à réfléchir à la création d'un colombarium dans le cimetière d'Hietaniemi. Le projet ne se réalisera que plus de deux décennies plus tard quand la ville cédera une parcelle d'une superficie de 2,1 hectares à l'ouest du crématorium.
-Le carré conçu par Paul Olsson est inauguré le 23 décembre 1949[7].
-Le colombarium est le dernier agrandissement du cimetière Hietaniemi[1].
-Par la suite, des petites zones pour les urnes funéraires ont été établies dans d'autres parties du cimetière[7].
-Chapelles
-Le cimetière de Hietaniemi a deux chapelles ardentes pour la bénédiction des défunts.
+Le carré conçu par Paul Olsson est inauguré le 23 décembre 1949.
+Le colombarium est le dernier agrandissement du cimetière Hietaniemi.
+Par la suite, des petites zones pour les urnes funéraires ont été établies dans d'autres parties du cimetière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Structure du cimetière</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chapelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le cimetière de Hietaniemi a deux chapelles ardentes pour la bénédiction des défunts.
 L’ Ancienne Chapelle est située dans l’ Ancienne partie proche du croisement de la rue Mechelininkatu et de la rue pohjoinen rautatiekatu.
 Elle a été conçue par l’architecte Theodor Höijer et construite en 1873.
-La Nouvelle Chapelle est dans la Partie de Hietaniemi est elle a été conçue par Albert Nyberg et construite en 1933. Elle est attenante au Colombarium et au Clocher dont la mélodie en 3 parties est bien connue des visiteurs du cimetière et des habitués de la Plage de Hietaniemi.
-Carré des gardes finlandais
-Le cimetière des gardes finlandais, connu sous le nom d'origine de cimetière militaire finlandais, a été fondé en 1833 sur le côté ouest du cimetière orthodoxe, à l'intention des soldats du troisième bataillon de tireurs d'élite de Finlande, c'est-à-dire les gardes finlandais et pour le premier équipage de marins finlandais.
+La Nouvelle Chapelle est dans la Partie de Hietaniemi est elle a été conçue par Albert Nyberg et construite en 1933. Elle est attenante au Colombarium et au Clocher dont la mélodie en 3 parties est bien connue des visiteurs du cimetière et des habitués de la Plage de Hietaniemi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Structure du cimetière</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Carré des gardes finlandais</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des gardes finlandais, connu sous le nom d'origine de cimetière militaire finlandais, a été fondé en 1833 sur le côté ouest du cimetière orthodoxe, à l'intention des soldats du troisième bataillon de tireurs d'élite de Finlande, c'est-à-dire les gardes finlandais et pour le premier équipage de marins finlandais.
 Après l'agrandissement de 1851, le cimetière a une superficie de 8800 mètres carrés. La garde finlandaise a alors sa propre paroisse, qui est abolie au début de 1914.
 À cette époque, le Sénat decide de transférer la gestion du cimetière à la paroisse évangélique luthérienne de Helsinki.
-Aujourd'hui, le cimetière de la garde de Finlande fait partie intégrante du cimetière d'Hietaniemi[8].
-Colline des artistes
-La Colline des artistes, est la zone 21a du vieux cimetière, située sur le côté gauche de l'allée principale, à une centaine de mètres de l'entrée de Mechelininkatu.
+Aujourd'hui, le cimetière de la garde de Finlande fait partie intégrante du cimetière d'Hietaniemi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Structure du cimetière</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Colline des artistes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colline des artistes, est la zone 21a du vieux cimetière, située sur le côté gauche de l'allée principale, à une centaine de mètres de l'entrée de Mechelininkatu.
 Seuls des artistes très respectés sont enterrés sur la colline des artistes, notamment des écrivains, compositeurs et musiciens, peintres, acteurs, sculpteurs et artistes du divertissement.
 Leurs conjoints ont également droit à être inhumés sur la colline des artistes.
-Cinquante artistes sont inhumés sur le site. En février 2010, Pentti Kaskipuro, artiste graphique, a reçu le dernier lieu de sépulture. Une fois la colline des artistes remplie, aucune nouvelle zone ne sera établie dans le cimetière[9],[10].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_d%27Hietaniemi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Cinquante artistes sont inhumés sur le site. En février 2010, Pentti Kaskipuro, artiste graphique, a reçu le dernier lieu de sépulture. Une fois la colline des artistes remplie, aucune nouvelle zone ne sera établie dans le cimetière,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présidents de la République de Finlande
-Les présidents sont inhumés dans la zone d'Hietaniemi, sauf Kaarlo Juho Ståhlberg, qui est inhumé dans la zone nouvelle.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Présidents de la République de Finlande</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les présidents sont inhumés dans la zone d'Hietaniemi, sauf Kaarlo Juho Ståhlberg, qui est inhumé dans la zone nouvelle.
 Kaarlo Juho Ståhlberg
 Lauri Kristian Relander
 Risto Ryti
@@ -638,7 +1014,43 @@
 Urho Kekkonen
 Mauno Koivisto
 Parmi les présidents seuls Pehr Evind Svinhufvud et Kyösti Kallio ne reposent pas à Hietaniemi; ils sont inhumés dans leur lieu de naissance, Luumäki et Nivala.
-Personnes inhumées sur la colline des Artistes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Personnes inhumées sur la colline des Artistes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alvar Aalto, architecte
 Aino Marsio-Aalto, architecte, première épouse de Alvar Aalto
 Elissa Aalto, architecte, seconde épouse de Alvar Aalto
@@ -691,8 +1103,47 @@
 Tapio Wirkkala, professeur, designer
 Jack Witikka, acteur
 Eeva-Kaarina Volanen, acteur
-Autres personnalités
-Ancienne zone
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ancienne zone</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ida Aalberg, actrice
 August Ahlqvist, poète
 Maria Andersson
@@ -762,7 +1213,47 @@
 Väinö Voionmaa, homme politique
 Magnus von Wright, artiste peintre
 Rosina Heikel, femme médecin
-Zone nouvelle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Zone nouvelle</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Heikki Aaltoila, compositeur
 Sinikka Arteva, journaliste
 Anni Collan
@@ -822,7 +1313,47 @@
 Jussi Snellman
 Ruth Snellman
 Rauli Tuomi
-Zone de Hietaniemi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Zone de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Siiri Angerkoski, acteur
 Teuvo Aura, homme politique
 Kim Borg, chanteur
@@ -873,7 +1404,47 @@
 Kauno Wirtanen, pianiste
 Hella Wuolijoki, écrivain
 Arvo Ylppö, professeur
-Jardin des urnes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jardin des urnes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eero Antikainen, homme politique
 Nils-Eric Fougstedt, chef d'orchestre
 Ilpo Hakasalo, journaliste
@@ -904,7 +1475,47 @@
 Raimo Utriainen, sculpteur
 Juha Vainio, chanteur
 Sulo Wuolijoki, homme politique, écrivain
-Cimetière de la Garde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Hietaniemi</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Hietaniemi</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnages éminents enterrés au Cimetière de Hietaniemi</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cimetière de la Garde</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aleksei Apostol, chef d'orchestre
 Holger Fransman, professeur
 Adolf Leander, chef d'orchestre
